--- a/doc/SKI平台任务清单.xlsx
+++ b/doc/SKI平台任务清单.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
   <si>
     <t>序号</t>
   </si>
@@ -87,6 +87,13 @@
     <t>1. 会话图可视化、图形化编辑
 2. 会话图可配置、配置持久化
 3. 会话图动态分发部署</t>
+  </si>
+  <si>
+    <t>消息队列</t>
+  </si>
+  <si>
+    <t>1. 消息集中化管理
+2. 消息持久化与恢复</t>
   </si>
 </sst>
 </file>
@@ -94,10 +101,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -130,14 +137,75 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,52 +234,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -221,7 +243,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,45 +251,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,37 +295,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,145 +457,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,8 +529,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -563,6 +570,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -574,6 +590,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -592,30 +623,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -624,10 +631,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -636,137 +643,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -794,14 +801,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1146,17 +1147,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="5.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="27" customWidth="1"/>
+    <col min="3" max="3" width="34" customWidth="1"/>
     <col min="4" max="4" width="7" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1188,28 +1189,28 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="54" spans="1:4">
+    <row r="3" ht="27" spans="1:4">
       <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" ht="27" spans="1:4">
+    <row r="4" spans="1:4">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="8" t="s">
@@ -1269,6 +1270,20 @@
         <v>20</v>
       </c>
       <c r="D8" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" ht="27" spans="1:4">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>18</v>
       </c>
     </row>

--- a/doc/SKI平台任务清单.xlsx
+++ b/doc/SKI平台任务清单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28710" windowHeight="14100"/>
+    <workbookView windowWidth="28695" windowHeight="14115"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
   <si>
     <t>序号</t>
   </si>
@@ -70,15 +70,22 @@
 3. 服务器任务动态分发部署</t>
   </si>
   <si>
+    <t>配置在线修改</t>
+  </si>
+  <si>
+    <t>1. 开放配置接口
+2. 配置文件的读写同步</t>
+  </si>
+  <si>
+    <t>低</t>
+  </si>
+  <si>
     <t>操作维护中心OMC</t>
   </si>
   <si>
     <t>1. 运行监控
 2. 服务器状态监控
 3. 系统性能分析</t>
-  </si>
-  <si>
-    <t>低</t>
   </si>
   <si>
     <t>会话图DFX</t>
@@ -101,10 +108,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -136,6 +143,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -143,54 +158,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,14 +181,91 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,55 +279,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,43 +302,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,139 +452,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,19 +536,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -573,8 +569,23 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,17 +620,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -631,10 +638,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -643,7 +650,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -652,128 +659,128 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -800,6 +807,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1147,10 +1157,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1196,7 +1206,7 @@
       <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="8" t="s">
@@ -1210,7 +1220,7 @@
       <c r="B4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="8" t="s">
@@ -1245,14 +1255,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" ht="40.5" spans="1:4">
+    <row r="7" ht="27" spans="1:4">
       <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="10" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="8" t="s">
@@ -1273,7 +1283,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" ht="27" spans="1:4">
+    <row r="9" ht="40.5" spans="1:4">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1284,12 +1294,26 @@
         <v>22</v>
       </c>
       <c r="D9" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" ht="27" spans="1:4">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D3 D4 D5:D8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D3 D4 D7 D5:D6 D8:D9">
       <formula1>"高,中,低"</formula1>
     </dataValidation>
   </dataValidations>
